--- a/blackjack class.xlsx
+++ b/blackjack class.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲームの流れ" sheetId="3" r:id="rId1"/>
+    <sheet name="Class" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Stack</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +88,305 @@
   </si>
   <si>
     <t>hit()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyuryoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pNyuryoku()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pFullout()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numHenkan()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆ ブラックジャック ルール説明</t>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トランプのA～Kを使って行われるゲーム(JOKERは使わない)</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本的にプレイヤーとディーラーの2人の1対1の勝負</t>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・配られたトランプの数字を合わせて21に近いほうが勝ち</t>
+    <rPh sb="1" eb="2">
+      <t>クバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ディーラーは17未満の場合は必ずカードを引き、17以上は引いてはいけない</t>
+    <rPh sb="9" eb="11">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーとディーラーが同じ数字の場合はディーラーが勝ち</t>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆ ブラックジャック ゲームの流れ</t>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーとディーラーにカードが2枚ずつ配られる</t>
+    <rPh sb="18" eb="19">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Aは1としても11としても扱える</t>
+    <rPh sb="14" eb="15">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・絵柄のカードはすべて10として扱われる</t>
+    <rPh sb="1" eb="3">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーは21になるまでカードを引くか引かないかを自由に選択できる</t>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【 勝敗判定 】</t>
+    <rPh sb="2" eb="4">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・21を超える数字になった場合はその時点で強制的に負け</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初めに配られる2枚のカードで21になった場合はブラックジャックとなり最強</t>
+    <rPh sb="1" eb="2">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クバ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【 その他 】</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ディーラーのブラックジャックの判定 (BJの場合、ディーラーの勝利)</t>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの選択 ( カードを引く：HIT  引かないで勝負：STAND )</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ディーラーのターン ( 17以上になるまでカードを引く )</t>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※22以上(バースト)ならこの時点でプレイヤーの負け</t>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お互いバーストで無ければ21に近いほうが勝利</t>
+    <rPh sb="2" eb="3">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆ 今後の目標</t>
+    <rPh sb="2" eb="4">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +419,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,16 +604,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -296,66 +720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,211 +1101,1375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U16"/>
+  <dimension ref="B1:Z37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B35" sqref="B35:Z35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="2:26" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="2:26" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B11:Z11"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="B33:Z33"/>
+    <mergeCell ref="B34:Z34"/>
+    <mergeCell ref="B35:Z35"/>
+    <mergeCell ref="B21:Z21"/>
+    <mergeCell ref="B25:Z25"/>
+    <mergeCell ref="B26:Z26"/>
+    <mergeCell ref="B27:Z27"/>
+    <mergeCell ref="B29:Z29"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="B24:Z24"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="B10:Z10"/>
+    <mergeCell ref="B13:Z13"/>
+    <mergeCell ref="B28:Z28"/>
+    <mergeCell ref="B32:Z32"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="B16:Z16"/>
+    <mergeCell ref="B20:Z20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="P4" s="16" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="P4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="3"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="11"/>
-      <c r="P10" s="16" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
+      <c r="P10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
-      <c r="P12" s="19" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="18"/>
+      <c r="P12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
-      <c r="P13" s="21" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="18"/>
+      <c r="P13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="B16:H16"/>
@@ -956,12 +2484,19 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
